--- a/experiment_parameters.xlsx
+++ b/experiment_parameters.xlsx
@@ -5,24 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masg\LPBF-Neuchatel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masg\LPBF-SmartAM-Optical-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cube1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cube2" sheetId="2" r:id="rId2"/>
-    <sheet name="Cube3" sheetId="3" r:id="rId3"/>
-    <sheet name="Cube4" sheetId="4" r:id="rId4"/>
+    <sheet name="Cube2" sheetId="5" r:id="rId2"/>
+    <sheet name="Cube3" sheetId="2" r:id="rId3"/>
+    <sheet name="Cube4" sheetId="6" r:id="rId4"/>
+    <sheet name="Cube5" sheetId="3" r:id="rId5"/>
+    <sheet name="Cube6" sheetId="7" r:id="rId6"/>
+    <sheet name="Cube7" sheetId="4" r:id="rId7"/>
+    <sheet name="Cube8" sheetId="8" r:id="rId8"/>
+    <sheet name="Cube9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>Speed (mm/s)</t>
   </si>
@@ -112,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -120,6 +125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,9 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="211" workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -587,146 +595,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>800</v>
-      </c>
-      <c r="B12">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>300</v>
-      </c>
-      <c r="B13">
-        <v>120</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1300</v>
-      </c>
-      <c r="B14">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1050</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>300</v>
-      </c>
-      <c r="B16">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>550</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1550</v>
-      </c>
-      <c r="B18">
-        <v>105</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1550</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>300</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>550</v>
-      </c>
-      <c r="B21">
-        <v>105</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -734,9 +602,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="222" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -761,21 +631,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -784,26 +654,26 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -812,40 +682,40 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1800</v>
+        <v>1550</v>
       </c>
       <c r="B8">
         <v>105</v>
@@ -854,26 +724,26 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>300</v>
+        <v>1550</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B10">
         <v>90</v>
@@ -882,160 +752,20 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>800</v>
-      </c>
-      <c r="B12">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>800</v>
-      </c>
-      <c r="B13">
-        <v>120</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1050</v>
-      </c>
-      <c r="B14">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1550</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>550</v>
-      </c>
-      <c r="B16">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>300</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1800</v>
-      </c>
-      <c r="B18">
-        <v>120</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1300</v>
-      </c>
-      <c r="B19">
-        <v>105</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1550</v>
-      </c>
-      <c r="B20">
-        <v>120</v>
-      </c>
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>550</v>
-      </c>
-      <c r="B21">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
         <v>20</v>
       </c>
     </row>
@@ -1046,9 +776,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="216" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1073,7 +805,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -1087,13 +819,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1101,13 +833,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1800</v>
+        <v>1050</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1129,13 +861,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1143,7 +875,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="B7">
         <v>120</v>
@@ -1157,7 +889,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1050</v>
+        <v>1800</v>
       </c>
       <c r="B8">
         <v>105</v>
@@ -1171,7 +903,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B9">
         <v>105</v>
@@ -1185,13 +917,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1199,7 +931,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -1209,146 +941,6 @@
       </c>
       <c r="D11">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1300</v>
-      </c>
-      <c r="B12">
-        <v>120</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>550</v>
-      </c>
-      <c r="B13">
-        <v>120</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>300</v>
-      </c>
-      <c r="B14">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>800</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1050</v>
-      </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>550</v>
-      </c>
-      <c r="B17">
-        <v>105</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1800</v>
-      </c>
-      <c r="B18">
-        <v>105</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>300</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>550</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1050</v>
-      </c>
-      <c r="B21">
-        <v>120</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1358,9 +950,710 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="217" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>800</v>
+      </c>
+      <c r="B2">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>800</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1050</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1550</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>550</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1800</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1300</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1550</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>550</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1300</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1550</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1800</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1550</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1550</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1050</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1300</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>800</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="216" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1300</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>550</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1050</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>550</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1800</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>550</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1050</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="232" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1642.105263157895</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1484.2105263157889</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>378.9473684210526</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>931.57894736842104</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>694.73684210526312</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1168.421052631579</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>536.84210526315792</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1721.0526315789471</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1563.1578947368421</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="232" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1384,14 +1677,191 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1326.3157894736839</v>
+      </c>
+      <c r="B2">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>457.89473684210532</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1010.526315789474</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1800</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>615.78947368421052</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1247.3684210526319</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>852.63157894736844</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1089.473684210526</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1405.2631578947371</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>773.68421052631584</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1399,13 +1869,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1642.105263157895</v>
+        <v>800</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1413,13 +1883,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1484.2105263157889</v>
+        <v>1800</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1427,13 +1897,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>378.9473684210526</v>
+        <v>1300</v>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1441,13 +1911,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>931.57894736842104</v>
+        <v>550</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1455,13 +1925,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>694.73684210526312</v>
+        <v>800</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1469,13 +1939,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1168.421052631579</v>
+        <v>1300</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1483,7 +1953,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>536.84210526315792</v>
+        <v>1050</v>
       </c>
       <c r="B9">
         <v>105</v>
@@ -1497,13 +1967,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1721.0526315789471</v>
+        <v>1550</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1511,7 +1981,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1563.1578947368421</v>
+        <v>1800</v>
       </c>
       <c r="B11">
         <v>105</v>
@@ -1523,147 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1326.3157894736839</v>
-      </c>
-      <c r="B12">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>457.89473684210532</v>
-      </c>
-      <c r="B13">
-        <v>105</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1010.526315789474</v>
-      </c>
-      <c r="B14">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1800</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>615.78947368421052</v>
-      </c>
-      <c r="B16">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1247.3684210526319</v>
-      </c>
-      <c r="B17">
-        <v>105</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>852.63157894736844</v>
-      </c>
-      <c r="B18">
-        <v>105</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1089.473684210526</v>
-      </c>
-      <c r="B19">
-        <v>105</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1405.2631578947371</v>
-      </c>
-      <c r="B20">
-        <v>105</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>773.68421052631584</v>
-      </c>
-      <c r="B21">
-        <v>105</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>